--- a/BackTest/2020-01-22 BackTest DASH.xlsx
+++ b/BackTest/2020-01-22 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.6729000000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>127606.6666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>127278.3333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>127660</v>
+      </c>
+      <c r="H3" t="n">
         <v>127293.3333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.266</v>
       </c>
       <c r="G4" t="n">
+        <v>127793.3333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>127340</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2.5172</v>
       </c>
       <c r="G5" t="n">
+        <v>127906.6666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>127375</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>39.0625</v>
       </c>
       <c r="G6" t="n">
+        <v>128020</v>
+      </c>
+      <c r="H6" t="n">
         <v>127431.6666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5.4119</v>
       </c>
       <c r="G7" t="n">
+        <v>128120</v>
+      </c>
+      <c r="H7" t="n">
         <v>127491.6666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>8.968299999999999</v>
       </c>
       <c r="G8" t="n">
+        <v>128253.3333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>127560</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>0.7687</v>
       </c>
       <c r="G9" t="n">
+        <v>128446.6666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>127626.6666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>7.8612</v>
       </c>
       <c r="G10" t="n">
+        <v>128660</v>
+      </c>
+      <c r="H10" t="n">
         <v>127698.3333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>43.4849</v>
       </c>
       <c r="G11" t="n">
+        <v>128860</v>
+      </c>
+      <c r="H11" t="n">
         <v>127773.3333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>73.526</v>
       </c>
       <c r="G12" t="n">
+        <v>129060</v>
+      </c>
+      <c r="H12" t="n">
         <v>127860</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>11.0462</v>
       </c>
       <c r="G13" t="n">
+        <v>129260</v>
+      </c>
+      <c r="H13" t="n">
         <v>127948.3333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5.0089</v>
       </c>
       <c r="G14" t="n">
+        <v>129446.6666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>128013.3333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4.8901</v>
       </c>
       <c r="G15" t="n">
+        <v>129620</v>
+      </c>
+      <c r="H15" t="n">
         <v>128071.6666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>62.8651</v>
       </c>
       <c r="G16" t="n">
+        <v>129806.6666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>128128.3333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>37.2175</v>
       </c>
       <c r="G17" t="n">
+        <v>129906.6666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>128175</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5.2189</v>
       </c>
       <c r="G18" t="n">
+        <v>130040</v>
+      </c>
+      <c r="H18" t="n">
         <v>128235</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2.8869</v>
       </c>
       <c r="G19" t="n">
+        <v>130140</v>
+      </c>
+      <c r="H19" t="n">
         <v>128296.6666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1.5</v>
       </c>
       <c r="G20" t="n">
+        <v>130146.6666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>128361.6666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4.9576</v>
       </c>
       <c r="G21" t="n">
+        <v>130133.3333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>128421.6666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>34.4885</v>
       </c>
       <c r="G22" t="n">
+        <v>130080</v>
+      </c>
+      <c r="H22" t="n">
         <v>128476.6666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>49.9489</v>
       </c>
       <c r="G23" t="n">
+        <v>129953.3333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>128513.3333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>14.5449</v>
       </c>
       <c r="G24" t="n">
+        <v>129820</v>
+      </c>
+      <c r="H24" t="n">
         <v>128513.3333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>11.2876</v>
       </c>
       <c r="G25" t="n">
+        <v>129686.6666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>128508.3333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>30</v>
       </c>
       <c r="G26" t="n">
+        <v>129480</v>
+      </c>
+      <c r="H26" t="n">
         <v>128475</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>0.1</v>
       </c>
       <c r="G27" t="n">
+        <v>129260</v>
+      </c>
+      <c r="H27" t="n">
         <v>128441.6666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>11.4554</v>
       </c>
       <c r="G28" t="n">
+        <v>129033.3333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>128408.3333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.5951</v>
       </c>
       <c r="G29" t="n">
+        <v>128833.3333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>128368.3333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10.7919</v>
       </c>
       <c r="G30" t="n">
+        <v>128626.6666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>128361.6666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>62.1172</v>
       </c>
       <c r="G31" t="n">
+        <v>128366.6666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>128348.3333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>0.51</v>
       </c>
       <c r="G32" t="n">
+        <v>128213.3333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>128336.6666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>5.75</v>
       </c>
       <c r="G33" t="n">
+        <v>128020</v>
+      </c>
+      <c r="H33" t="n">
         <v>128331.6666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.096</v>
       </c>
       <c r="G34" t="n">
+        <v>127853.3333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>128323.3333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>19.9999</v>
       </c>
       <c r="G35" t="n">
+        <v>127760</v>
+      </c>
+      <c r="H35" t="n">
         <v>128310</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2.4905</v>
       </c>
       <c r="G36" t="n">
+        <v>127666.6666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>128306.6666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>0.2491</v>
       </c>
       <c r="G37" t="n">
+        <v>127593.3333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>128296.6666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>8.013500000000001</v>
       </c>
       <c r="G38" t="n">
+        <v>127533.3333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>128285</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>0.03477308</v>
       </c>
       <c r="G39" t="n">
+        <v>127513.3333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>128281.6666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>0.1727</v>
       </c>
       <c r="G40" t="n">
+        <v>127420</v>
+      </c>
+      <c r="H40" t="n">
         <v>128266.6666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1.4809</v>
       </c>
       <c r="G41" t="n">
+        <v>127353.3333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>128243.3333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>10.4199</v>
       </c>
       <c r="G42" t="n">
+        <v>127280</v>
+      </c>
+      <c r="H42" t="n">
         <v>128220</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>21.8582</v>
       </c>
       <c r="G43" t="n">
+        <v>127200</v>
+      </c>
+      <c r="H43" t="n">
         <v>128206.6666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>0.99</v>
       </c>
       <c r="G44" t="n">
+        <v>127093.3333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>128190</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>25.4185</v>
       </c>
       <c r="G45" t="n">
+        <v>127000</v>
+      </c>
+      <c r="H45" t="n">
         <v>128178.3333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>7.8648</v>
       </c>
       <c r="G46" t="n">
+        <v>126853.3333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>128155</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4.2092</v>
       </c>
       <c r="G47" t="n">
+        <v>126633.3333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>128090</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>0.03578099</v>
       </c>
       <c r="G48" t="n">
+        <v>126433.3333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>128038.3333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>28.3425</v>
       </c>
       <c r="G49" t="n">
+        <v>126293.3333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>128020</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>7.8288</v>
       </c>
       <c r="G50" t="n">
+        <v>126100</v>
+      </c>
+      <c r="H50" t="n">
         <v>127978.3333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>0.009638549999999999</v>
       </c>
       <c r="G51" t="n">
+        <v>125906.6666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>127931.6666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>45.3802</v>
       </c>
       <c r="G52" t="n">
+        <v>125660</v>
+      </c>
+      <c r="H52" t="n">
         <v>127863.3333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>34.4885</v>
       </c>
       <c r="G53" t="n">
+        <v>125340</v>
+      </c>
+      <c r="H53" t="n">
         <v>127770</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>7.2747</v>
       </c>
       <c r="G54" t="n">
+        <v>125060</v>
+      </c>
+      <c r="H54" t="n">
         <v>127710</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
+        <v>124793.3333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>127640</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>54.7743</v>
       </c>
       <c r="G56" t="n">
+        <v>124433.3333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>127531.6666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>8.3371</v>
       </c>
       <c r="G57" t="n">
+        <v>124160</v>
+      </c>
+      <c r="H57" t="n">
         <v>127440</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>4.0953</v>
       </c>
       <c r="G58" t="n">
+        <v>123940</v>
+      </c>
+      <c r="H58" t="n">
         <v>127358.3333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>4.3155</v>
       </c>
       <c r="G59" t="n">
+        <v>123773.3333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>127286.6666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>0.598</v>
       </c>
       <c r="G60" t="n">
+        <v>123626.6666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>127218.3333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>0.8017</v>
       </c>
       <c r="G61" t="n">
+        <v>123566.6666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>127148.3333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>30.5</v>
       </c>
       <c r="G62" t="n">
+        <v>123546.6666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>127075</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>7</v>
       </c>
       <c r="G63" t="n">
+        <v>123593.3333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>127021.6666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>0.7971</v>
       </c>
       <c r="G64" t="n">
+        <v>123560</v>
+      </c>
+      <c r="H64" t="n">
         <v>126961.6666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>0.01781876</v>
       </c>
       <c r="G65" t="n">
+        <v>123566.6666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>126893.3333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3.4937</v>
       </c>
       <c r="G66" t="n">
+        <v>123566.6666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>126818.3333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>0.02672814</v>
       </c>
       <c r="G67" t="n">
+        <v>123613.3333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>126736.6666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>20.2792</v>
       </c>
       <c r="G68" t="n">
+        <v>123720</v>
+      </c>
+      <c r="H68" t="n">
         <v>126636.6666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="G69" t="n">
+        <v>123753.3333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>126536.6666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>18.1289</v>
       </c>
       <c r="G70" t="n">
+        <v>123826.6666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>126431.6666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>4.05911415</v>
       </c>
       <c r="G71" t="n">
+        <v>124020</v>
+      </c>
+      <c r="H71" t="n">
         <v>126321.6666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>5.07</v>
       </c>
       <c r="G72" t="n">
+        <v>124120</v>
+      </c>
+      <c r="H72" t="n">
         <v>126205</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2.4399</v>
       </c>
       <c r="G73" t="n">
+        <v>124186.6666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>126090</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>0.17327186</v>
       </c>
       <c r="G74" t="n">
+        <v>124266.6666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>125991.6666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1.0354952</v>
       </c>
       <c r="G75" t="n">
+        <v>124353.3333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>125901.6666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>0.0176</v>
       </c>
       <c r="G76" t="n">
+        <v>124440</v>
+      </c>
+      <c r="H76" t="n">
         <v>125806.6666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>0.0429048</v>
       </c>
       <c r="G77" t="n">
+        <v>124540</v>
+      </c>
+      <c r="H77" t="n">
         <v>125733.3333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>32.7637</v>
       </c>
       <c r="G78" t="n">
+        <v>124573.3333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>125655</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>33.6799</v>
       </c>
       <c r="G79" t="n">
+        <v>124620</v>
+      </c>
+      <c r="H79" t="n">
         <v>125581.6666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>6.2528</v>
       </c>
       <c r="G80" t="n">
+        <v>124713.3333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>125535</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>4.03296677</v>
       </c>
       <c r="G81" t="n">
+        <v>124840</v>
+      </c>
+      <c r="H81" t="n">
         <v>125495</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>0.042</v>
       </c>
       <c r="G82" t="n">
+        <v>124926.6666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>125448.3333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>0.1781</v>
       </c>
       <c r="G83" t="n">
+        <v>125060</v>
+      </c>
+      <c r="H83" t="n">
         <v>125413.3333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>0.1468</v>
       </c>
       <c r="G84" t="n">
+        <v>125193.3333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>125380</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>125386.6666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>125356.6666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>6.8753</v>
       </c>
       <c r="G86" t="n">
+        <v>125626.6666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>125358.3333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>39.8309</v>
       </c>
       <c r="G87" t="n">
+        <v>125773.3333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>125333.3333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>0.0001</v>
       </c>
       <c r="G88" t="n">
+        <v>125913.3333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>125310</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>0.0813</v>
       </c>
       <c r="G89" t="n">
+        <v>126006.6666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>125285</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>0.2513</v>
       </c>
       <c r="G90" t="n">
+        <v>126060</v>
+      </c>
+      <c r="H90" t="n">
         <v>125260</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>4.1988</v>
       </c>
       <c r="G91" t="n">
+        <v>126046.6666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>125226.6666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>0.0001</v>
       </c>
       <c r="G92" t="n">
+        <v>126033.3333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>125188.3333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>19.9708</v>
       </c>
       <c r="G93" t="n">
+        <v>125973.3333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>125143.3333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>0.0377</v>
       </c>
       <c r="G94" t="n">
+        <v>125953.3333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>125106.6666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>12.4399</v>
       </c>
       <c r="G95" t="n">
+        <v>125886.6666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>125066.6666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>20.6267</v>
       </c>
       <c r="G96" t="n">
+        <v>125826.6666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>125035</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>21</v>
       </c>
       <c r="G97" t="n">
+        <v>125826.6666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>125006.6666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>14.4729</v>
       </c>
       <c r="G98" t="n">
+        <v>125780</v>
+      </c>
+      <c r="H98" t="n">
         <v>124975</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1068.0056</v>
       </c>
       <c r="G99" t="n">
+        <v>125746.6666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>124938.3333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>3.7822</v>
       </c>
       <c r="G100" t="n">
+        <v>125673.3333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>124920</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>6.253</v>
       </c>
       <c r="G101" t="n">
+        <v>125560</v>
+      </c>
+      <c r="H101" t="n">
         <v>124910</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>0.4999</v>
       </c>
       <c r="G102" t="n">
+        <v>125560</v>
+      </c>
+      <c r="H102" t="n">
         <v>124903.3333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>0.01</v>
       </c>
       <c r="G103" t="n">
+        <v>125560</v>
+      </c>
+      <c r="H103" t="n">
         <v>124900</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>15.3665</v>
       </c>
       <c r="G104" t="n">
+        <v>125573.3333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>124905</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>14.151</v>
       </c>
       <c r="G105" t="n">
+        <v>125566.6666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>124901.6666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>13.9665</v>
       </c>
       <c r="G106" t="n">
+        <v>125653.3333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>124926.6666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>6</v>
       </c>
       <c r="G107" t="n">
+        <v>125700</v>
+      </c>
+      <c r="H107" t="n">
         <v>124955</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>6.902</v>
       </c>
       <c r="G108" t="n">
+        <v>125760</v>
+      </c>
+      <c r="H108" t="n">
         <v>124975</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>0.5099</v>
       </c>
       <c r="G109" t="n">
+        <v>125740</v>
+      </c>
+      <c r="H109" t="n">
         <v>124968.3333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,25 @@
         <v>0.0001</v>
       </c>
       <c r="G110" t="n">
+        <v>125733.3333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>124975</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>125000</v>
+      </c>
+      <c r="L110" t="n">
+        <v>125000</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4599,29 @@
         <v>1.6375</v>
       </c>
       <c r="G111" t="n">
+        <v>125660</v>
+      </c>
+      <c r="H111" t="n">
         <v>124973.3333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>125000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>125000</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4645,29 @@
         <v>2.6376</v>
       </c>
       <c r="G112" t="n">
+        <v>125573.3333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>124985</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>124400</v>
+      </c>
+      <c r="L112" t="n">
+        <v>125000</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4691,25 @@
         <v>0.772</v>
       </c>
       <c r="G113" t="n">
+        <v>125513.3333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>125018.3333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>124700</v>
+      </c>
+      <c r="L113" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4733,29 @@
         <v>1.5116</v>
       </c>
       <c r="G114" t="n">
+        <v>125440</v>
+      </c>
+      <c r="H114" t="n">
         <v>125033.3333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>124500</v>
+      </c>
+      <c r="L114" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,24 +4779,29 @@
         <v>0.63</v>
       </c>
       <c r="G115" t="n">
+        <v>125340</v>
+      </c>
+      <c r="H115" t="n">
         <v>125056.6666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
         <v>124500</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,22 +4825,29 @@
         <v>2.6</v>
       </c>
       <c r="G116" t="n">
+        <v>125233.3333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>125110</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>124400</v>
+      </c>
+      <c r="L116" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4483,22 +4871,29 @@
         <v>1.0754</v>
       </c>
       <c r="G117" t="n">
+        <v>125126.6666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>125145</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>124300</v>
+      </c>
+      <c r="L117" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,22 +4917,29 @@
         <v>0.0114</v>
       </c>
       <c r="G118" t="n">
+        <v>125060</v>
+      </c>
+      <c r="H118" t="n">
         <v>125180</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>124400</v>
+      </c>
+      <c r="L118" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,22 +4963,29 @@
         <v>0.8878</v>
       </c>
       <c r="G119" t="n">
+        <v>125006.6666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>125213.3333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>125100</v>
+      </c>
+      <c r="L119" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4600,22 +5009,27 @@
         <v>1.0479</v>
       </c>
       <c r="G120" t="n">
+        <v>124993.3333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>125243.3333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,22 +5053,27 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="G121" t="n">
+        <v>124906.6666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>125261.6666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,22 +5097,27 @@
         <v>6</v>
       </c>
       <c r="G122" t="n">
+        <v>124866.6666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>125285</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,22 +5141,27 @@
         <v>7.98309225</v>
       </c>
       <c r="G123" t="n">
+        <v>124860</v>
+      </c>
+      <c r="H123" t="n">
         <v>125291.6666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,22 +5185,27 @@
         <v>8.769</v>
       </c>
       <c r="G124" t="n">
+        <v>124833.3333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>125286.6666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,22 +5229,27 @@
         <v>7</v>
       </c>
       <c r="G125" t="n">
+        <v>124780</v>
+      </c>
+      <c r="H125" t="n">
         <v>125278.3333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,22 +5273,29 @@
         <v>2.0036</v>
       </c>
       <c r="G126" t="n">
+        <v>124773.3333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>125275</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>124200</v>
+      </c>
+      <c r="L126" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4873,22 +5319,29 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
+        <v>124740</v>
+      </c>
+      <c r="H127" t="n">
         <v>125266.6666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>124300</v>
+      </c>
+      <c r="L127" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,24 +5365,29 @@
         <v>5</v>
       </c>
       <c r="G128" t="n">
+        <v>124706.6666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>125265</v>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
         <v>124200</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="L128" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4953,22 +5411,29 @@
         <v>3</v>
       </c>
       <c r="G129" t="n">
+        <v>124673.3333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>125263.3333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>124000</v>
+      </c>
+      <c r="L129" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,22 +5457,27 @@
         <v>3.3868</v>
       </c>
       <c r="G130" t="n">
+        <v>124773.3333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>125293.3333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="L130" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,22 +5501,27 @@
         <v>6</v>
       </c>
       <c r="G131" t="n">
+        <v>124833.3333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>125313.3333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,22 +5545,27 @@
         <v>0.6544</v>
       </c>
       <c r="G132" t="n">
+        <v>124953.3333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>125353.3333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5109,22 +5589,27 @@
         <v>0.48</v>
       </c>
       <c r="G133" t="n">
+        <v>125046.6666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>125395</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,22 +5633,27 @@
         <v>11.03</v>
       </c>
       <c r="G134" t="n">
+        <v>125146.6666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>125433.3333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5187,22 +5677,27 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>125233.3333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>125463.3333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,22 +5721,27 @@
         <v>2.30010228</v>
       </c>
       <c r="G136" t="n">
+        <v>125373.3333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>125495</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L136" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5265,22 +5765,27 @@
         <v>2.387</v>
       </c>
       <c r="G137" t="n">
+        <v>125460</v>
+      </c>
+      <c r="H137" t="n">
         <v>125515</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L137" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,22 +5809,27 @@
         <v>7</v>
       </c>
       <c r="G138" t="n">
+        <v>125593.3333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>125546.6666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5343,22 +5853,27 @@
         <v>2.3455</v>
       </c>
       <c r="G139" t="n">
+        <v>125766.6666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>125573.3333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,22 +5897,27 @@
         <v>1.8068</v>
       </c>
       <c r="G140" t="n">
+        <v>125960</v>
+      </c>
+      <c r="H140" t="n">
         <v>125590</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,1456 +5941,1840 @@
         <v>1.0086</v>
       </c>
       <c r="G141" t="n">
+        <v>126166.6666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>125606.6666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C142" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D142" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E142" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.0086</v>
+      </c>
+      <c r="G142" t="n">
+        <v>126380</v>
+      </c>
+      <c r="H142" t="n">
+        <v>125630</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C143" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D143" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E143" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.4412</v>
+      </c>
+      <c r="G143" t="n">
+        <v>126606.6666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>125651.6666666667</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C144" t="n">
+        <v>126700</v>
+      </c>
+      <c r="D144" t="n">
+        <v>126900</v>
+      </c>
+      <c r="E144" t="n">
+        <v>126700</v>
+      </c>
+      <c r="F144" t="n">
+        <v>61.2965</v>
+      </c>
+      <c r="G144" t="n">
+        <v>126786.6666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>125661.6666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>125500</v>
+      </c>
+      <c r="C145" t="n">
+        <v>125500</v>
+      </c>
+      <c r="D145" t="n">
+        <v>125500</v>
+      </c>
+      <c r="E145" t="n">
+        <v>125500</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.2943</v>
+      </c>
+      <c r="G145" t="n">
+        <v>126760</v>
+      </c>
+      <c r="H145" t="n">
+        <v>125636.6666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>125300</v>
+      </c>
+      <c r="C146" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D146" t="n">
+        <v>125300</v>
+      </c>
+      <c r="E146" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.3001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>126766.6666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>125598.3333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>125500</v>
+      </c>
+      <c r="L146" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125400</v>
+      </c>
+      <c r="C147" t="n">
+        <v>125300</v>
+      </c>
+      <c r="D147" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E147" t="n">
+        <v>125300</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>126706.6666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>125586.6666666667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>125300</v>
+      </c>
+      <c r="L147" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>125900</v>
+      </c>
+      <c r="C148" t="n">
+        <v>125900</v>
+      </c>
+      <c r="D148" t="n">
+        <v>125900</v>
+      </c>
+      <c r="E148" t="n">
+        <v>125900</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.2437</v>
+      </c>
+      <c r="G148" t="n">
+        <v>126666.6666666667</v>
+      </c>
+      <c r="H148" t="n">
+        <v>125583.3333333333</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>125300</v>
+      </c>
+      <c r="L148" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C149" t="n">
+        <v>127000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>126900</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.3309</v>
+      </c>
+      <c r="G149" t="n">
+        <v>126666.6666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>125598.3333333333</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>125900</v>
+      </c>
+      <c r="L149" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>127100</v>
+      </c>
+      <c r="C150" t="n">
+        <v>127700</v>
+      </c>
+      <c r="D150" t="n">
+        <v>127700</v>
+      </c>
+      <c r="E150" t="n">
+        <v>127100</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.5589</v>
+      </c>
+      <c r="G150" t="n">
+        <v>126713.3333333333</v>
+      </c>
+      <c r="H150" t="n">
+        <v>125626.6666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>127100</v>
+      </c>
+      <c r="C151" t="n">
+        <v>127700</v>
+      </c>
+      <c r="D151" t="n">
+        <v>127700</v>
+      </c>
+      <c r="E151" t="n">
+        <v>127100</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>126753.3333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>125671.6666666667</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C152" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D152" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E152" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="G152" t="n">
+        <v>126820</v>
+      </c>
+      <c r="H152" t="n">
+        <v>125711.6666666667</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C153" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D153" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E153" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.06610000000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>126826.6666666667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>125760</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C154" t="n">
+        <v>126800</v>
+      </c>
+      <c r="D154" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>126800</v>
+      </c>
+      <c r="F154" t="n">
+        <v>102.1688</v>
+      </c>
+      <c r="G154" t="n">
+        <v>126800</v>
+      </c>
+      <c r="H154" t="n">
+        <v>125785</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>127100</v>
+      </c>
+      <c r="C155" t="n">
+        <v>127100</v>
+      </c>
+      <c r="D155" t="n">
+        <v>127100</v>
+      </c>
+      <c r="E155" t="n">
+        <v>127100</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.7144</v>
+      </c>
+      <c r="G155" t="n">
+        <v>126800</v>
+      </c>
+      <c r="H155" t="n">
+        <v>125818.3333333333</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>127100</v>
+      </c>
+      <c r="C156" t="n">
+        <v>127100</v>
+      </c>
+      <c r="D156" t="n">
+        <v>127100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>127100</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9.785600000000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>126780</v>
+      </c>
+      <c r="H156" t="n">
+        <v>125845</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>127300</v>
+      </c>
+      <c r="C157" t="n">
+        <v>127200</v>
+      </c>
+      <c r="D157" t="n">
+        <v>127300</v>
+      </c>
+      <c r="E157" t="n">
+        <v>127200</v>
+      </c>
+      <c r="F157" t="n">
+        <v>24.4975</v>
+      </c>
+      <c r="G157" t="n">
+        <v>126766.6666666667</v>
+      </c>
+      <c r="H157" t="n">
+        <v>125865</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>127200</v>
+      </c>
+      <c r="C158" t="n">
+        <v>127200</v>
+      </c>
+      <c r="D158" t="n">
+        <v>127200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>127200</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G158" t="n">
+        <v>126753.3333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>125895</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C159" t="n">
+        <v>127900</v>
+      </c>
+      <c r="D159" t="n">
+        <v>127900</v>
+      </c>
+      <c r="E159" t="n">
+        <v>127800</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.2118</v>
+      </c>
+      <c r="G159" t="n">
+        <v>126833.3333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>125933.3333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C160" t="n">
+        <v>128000</v>
+      </c>
+      <c r="D160" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E160" t="n">
+        <v>127900</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4.0204</v>
+      </c>
+      <c r="G160" t="n">
+        <v>127000</v>
+      </c>
+      <c r="H160" t="n">
+        <v>125968.3333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>128000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11</v>
+      </c>
+      <c r="G161" t="n">
+        <v>127180</v>
+      </c>
+      <c r="H161" t="n">
+        <v>126003.3333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>127800</v>
+      </c>
+      <c r="C162" t="n">
+        <v>127600</v>
+      </c>
+      <c r="D162" t="n">
+        <v>127800</v>
+      </c>
+      <c r="E162" t="n">
+        <v>127600</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.5034999999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>127333.3333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>126030</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C163" t="n">
+        <v>127400</v>
+      </c>
+      <c r="D163" t="n">
+        <v>127400</v>
+      </c>
+      <c r="E163" t="n">
+        <v>127400</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6.731</v>
+      </c>
+      <c r="G163" t="n">
+        <v>127433.3333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>126051.6666666667</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>128100</v>
+      </c>
+      <c r="D164" t="n">
+        <v>128100</v>
+      </c>
+      <c r="E164" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.2833</v>
+      </c>
+      <c r="G164" t="n">
+        <v>127506.6666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>126081.6666666667</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>128200</v>
+      </c>
+      <c r="C165" t="n">
+        <v>128500</v>
+      </c>
+      <c r="D165" t="n">
+        <v>128500</v>
+      </c>
+      <c r="E165" t="n">
+        <v>128200</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11.3212</v>
+      </c>
+      <c r="G165" t="n">
+        <v>127560</v>
+      </c>
+      <c r="H165" t="n">
+        <v>126125</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>128500</v>
+      </c>
+      <c r="C166" t="n">
+        <v>128700</v>
+      </c>
+      <c r="D166" t="n">
+        <v>128700</v>
+      </c>
+      <c r="E166" t="n">
+        <v>128500</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.4517</v>
+      </c>
+      <c r="G166" t="n">
+        <v>127626.6666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>126165</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>128700</v>
+      </c>
+      <c r="C167" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D167" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E167" t="n">
+        <v>128700</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4.0305</v>
+      </c>
+      <c r="G167" t="n">
+        <v>127740</v>
+      </c>
+      <c r="H167" t="n">
+        <v>126221.6666666667</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C168" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D168" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E168" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G168" t="n">
+        <v>127853.3333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>126283.3333333333</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C169" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D169" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E169" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>128006.6666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>126351.6666666667</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>128900</v>
+      </c>
+      <c r="C170" t="n">
+        <v>128900</v>
+      </c>
+      <c r="D170" t="n">
+        <v>128900</v>
+      </c>
+      <c r="E170" t="n">
+        <v>128900</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="G170" t="n">
+        <v>128126.6666666667</v>
+      </c>
+      <c r="H170" t="n">
+        <v>126416.6666666667</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>128900</v>
+      </c>
+      <c r="C171" t="n">
+        <v>128900</v>
+      </c>
+      <c r="D171" t="n">
+        <v>128900</v>
+      </c>
+      <c r="E171" t="n">
+        <v>128900</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>128246.6666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>126491.6666666667</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C172" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D172" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E172" t="n">
+        <v>128900</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.4772</v>
+      </c>
+      <c r="G172" t="n">
+        <v>128373.3333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>126565</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C173" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D173" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E173" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="G173" t="n">
+        <v>128500</v>
+      </c>
+      <c r="H173" t="n">
+        <v>126641.6666666667</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C174" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D174" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E174" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" t="n">
+        <v>128586.6666666667</v>
+      </c>
+      <c r="H174" t="n">
+        <v>126720</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C175" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D175" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E175" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F175" t="n">
+        <v>36.3367</v>
+      </c>
+      <c r="G175" t="n">
+        <v>128666.6666666667</v>
+      </c>
+      <c r="H175" t="n">
+        <v>126800</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C176" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D176" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E176" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="G176" t="n">
+        <v>128746.6666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>126881.6666666667</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C177" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D177" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E177" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="G177" t="n">
+        <v>128853.3333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>126961.6666666667</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>129700</v>
+      </c>
+      <c r="C178" t="n">
+        <v>129700</v>
+      </c>
+      <c r="D178" t="n">
+        <v>129700</v>
+      </c>
+      <c r="E178" t="n">
+        <v>129700</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G178" t="n">
+        <v>129006.6666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>127038.3333333333</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>129800</v>
+      </c>
+      <c r="C179" t="n">
+        <v>129800</v>
+      </c>
+      <c r="D179" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>129800</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3.3578</v>
+      </c>
+      <c r="G179" t="n">
+        <v>129120</v>
+      </c>
+      <c r="H179" t="n">
+        <v>127110</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>130000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.8572</v>
+      </c>
+      <c r="G180" t="n">
+        <v>129220</v>
+      </c>
+      <c r="H180" t="n">
+        <v>127181.6666666667</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>130000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="G181" t="n">
+        <v>129306.6666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>127265</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>130000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2.5669</v>
+      </c>
+      <c r="G182" t="n">
+        <v>129366.6666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>127346.6666666667</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>124700</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C142" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D142" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E142" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1.0086</v>
-      </c>
-      <c r="G142" t="n">
-        <v>125630</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C143" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D143" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E143" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1.4412</v>
-      </c>
-      <c r="G143" t="n">
-        <v>125651.6666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>126900</v>
-      </c>
-      <c r="C144" t="n">
-        <v>126700</v>
-      </c>
-      <c r="D144" t="n">
-        <v>126900</v>
-      </c>
-      <c r="E144" t="n">
-        <v>126700</v>
-      </c>
-      <c r="F144" t="n">
-        <v>61.2965</v>
-      </c>
-      <c r="G144" t="n">
-        <v>125661.6666666667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>125500</v>
-      </c>
-      <c r="C145" t="n">
-        <v>125500</v>
-      </c>
-      <c r="D145" t="n">
-        <v>125500</v>
-      </c>
-      <c r="E145" t="n">
-        <v>125500</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.2943</v>
-      </c>
-      <c r="G145" t="n">
-        <v>125636.6666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>125300</v>
-      </c>
-      <c r="C146" t="n">
-        <v>125300</v>
-      </c>
-      <c r="D146" t="n">
-        <v>125300</v>
-      </c>
-      <c r="E146" t="n">
-        <v>125300</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.3001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>125598.3333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>125400</v>
-      </c>
-      <c r="C147" t="n">
-        <v>125300</v>
-      </c>
-      <c r="D147" t="n">
-        <v>125400</v>
-      </c>
-      <c r="E147" t="n">
-        <v>125300</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3</v>
-      </c>
-      <c r="G147" t="n">
-        <v>125586.6666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>125900</v>
-      </c>
-      <c r="C148" t="n">
-        <v>125900</v>
-      </c>
-      <c r="D148" t="n">
-        <v>125900</v>
-      </c>
-      <c r="E148" t="n">
-        <v>125900</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.2437</v>
-      </c>
-      <c r="G148" t="n">
-        <v>125583.3333333333</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>126900</v>
-      </c>
-      <c r="C149" t="n">
-        <v>127000</v>
-      </c>
-      <c r="D149" t="n">
-        <v>127000</v>
-      </c>
-      <c r="E149" t="n">
-        <v>126900</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.3309</v>
-      </c>
-      <c r="G149" t="n">
-        <v>125598.3333333333</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>127100</v>
-      </c>
-      <c r="C150" t="n">
-        <v>127700</v>
-      </c>
-      <c r="D150" t="n">
-        <v>127700</v>
-      </c>
-      <c r="E150" t="n">
-        <v>127100</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4.5589</v>
-      </c>
-      <c r="G150" t="n">
-        <v>125626.6666666667</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>127100</v>
-      </c>
-      <c r="C151" t="n">
-        <v>127700</v>
-      </c>
-      <c r="D151" t="n">
-        <v>127700</v>
-      </c>
-      <c r="E151" t="n">
-        <v>127100</v>
-      </c>
-      <c r="F151" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G151" t="n">
-        <v>125671.6666666667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C152" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D152" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E152" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.0339</v>
-      </c>
-      <c r="G152" t="n">
-        <v>125711.6666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C153" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D153" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E153" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.06610000000000001</v>
-      </c>
-      <c r="G153" t="n">
-        <v>125760</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>127000</v>
-      </c>
-      <c r="C154" t="n">
-        <v>126800</v>
-      </c>
-      <c r="D154" t="n">
-        <v>127000</v>
-      </c>
-      <c r="E154" t="n">
-        <v>126800</v>
-      </c>
-      <c r="F154" t="n">
-        <v>102.1688</v>
-      </c>
-      <c r="G154" t="n">
-        <v>125785</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>127100</v>
-      </c>
-      <c r="C155" t="n">
-        <v>127100</v>
-      </c>
-      <c r="D155" t="n">
-        <v>127100</v>
-      </c>
-      <c r="E155" t="n">
-        <v>127100</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.7144</v>
-      </c>
-      <c r="G155" t="n">
-        <v>125818.3333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>127100</v>
-      </c>
-      <c r="C156" t="n">
-        <v>127100</v>
-      </c>
-      <c r="D156" t="n">
-        <v>127100</v>
-      </c>
-      <c r="E156" t="n">
-        <v>127100</v>
-      </c>
-      <c r="F156" t="n">
-        <v>9.785600000000001</v>
-      </c>
-      <c r="G156" t="n">
-        <v>125845</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>127300</v>
-      </c>
-      <c r="C157" t="n">
-        <v>127200</v>
-      </c>
-      <c r="D157" t="n">
-        <v>127300</v>
-      </c>
-      <c r="E157" t="n">
-        <v>127200</v>
-      </c>
-      <c r="F157" t="n">
-        <v>24.4975</v>
-      </c>
-      <c r="G157" t="n">
-        <v>125865</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>127200</v>
-      </c>
-      <c r="C158" t="n">
-        <v>127200</v>
-      </c>
-      <c r="D158" t="n">
-        <v>127200</v>
-      </c>
-      <c r="E158" t="n">
-        <v>127200</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G158" t="n">
-        <v>125895</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>127800</v>
-      </c>
-      <c r="C159" t="n">
-        <v>127900</v>
-      </c>
-      <c r="D159" t="n">
-        <v>127900</v>
-      </c>
-      <c r="E159" t="n">
-        <v>127800</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5.2118</v>
-      </c>
-      <c r="G159" t="n">
-        <v>125933.3333333333</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>127900</v>
-      </c>
-      <c r="C160" t="n">
-        <v>128000</v>
-      </c>
-      <c r="D160" t="n">
-        <v>128000</v>
-      </c>
-      <c r="E160" t="n">
-        <v>127900</v>
-      </c>
-      <c r="F160" t="n">
-        <v>4.0204</v>
-      </c>
-      <c r="G160" t="n">
-        <v>125968.3333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C161" t="n">
-        <v>128000</v>
-      </c>
-      <c r="D161" t="n">
-        <v>128000</v>
-      </c>
-      <c r="E161" t="n">
-        <v>128000</v>
-      </c>
-      <c r="F161" t="n">
-        <v>11</v>
-      </c>
-      <c r="G161" t="n">
-        <v>126003.3333333333</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>127800</v>
-      </c>
-      <c r="C162" t="n">
-        <v>127600</v>
-      </c>
-      <c r="D162" t="n">
-        <v>127800</v>
-      </c>
-      <c r="E162" t="n">
-        <v>127600</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.5034999999999999</v>
-      </c>
-      <c r="G162" t="n">
-        <v>126030</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C163" t="n">
-        <v>127400</v>
-      </c>
-      <c r="D163" t="n">
-        <v>127400</v>
-      </c>
-      <c r="E163" t="n">
-        <v>127400</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6.731</v>
-      </c>
-      <c r="G163" t="n">
-        <v>126051.6666666667</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C164" t="n">
-        <v>128100</v>
-      </c>
-      <c r="D164" t="n">
-        <v>128100</v>
-      </c>
-      <c r="E164" t="n">
-        <v>128000</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1.2833</v>
-      </c>
-      <c r="G164" t="n">
-        <v>126081.6666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>128200</v>
-      </c>
-      <c r="C165" t="n">
-        <v>128500</v>
-      </c>
-      <c r="D165" t="n">
-        <v>128500</v>
-      </c>
-      <c r="E165" t="n">
-        <v>128200</v>
-      </c>
-      <c r="F165" t="n">
-        <v>11.3212</v>
-      </c>
-      <c r="G165" t="n">
-        <v>126125</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>128500</v>
-      </c>
-      <c r="C166" t="n">
-        <v>128700</v>
-      </c>
-      <c r="D166" t="n">
-        <v>128700</v>
-      </c>
-      <c r="E166" t="n">
-        <v>128500</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1.4517</v>
-      </c>
-      <c r="G166" t="n">
-        <v>126165</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>128700</v>
-      </c>
-      <c r="C167" t="n">
-        <v>129100</v>
-      </c>
-      <c r="D167" t="n">
-        <v>129100</v>
-      </c>
-      <c r="E167" t="n">
-        <v>128700</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4.0305</v>
-      </c>
-      <c r="G167" t="n">
-        <v>126221.6666666667</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>129100</v>
-      </c>
-      <c r="C168" t="n">
-        <v>129100</v>
-      </c>
-      <c r="D168" t="n">
-        <v>129100</v>
-      </c>
-      <c r="E168" t="n">
-        <v>129100</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G168" t="n">
-        <v>126283.3333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>129100</v>
-      </c>
-      <c r="C169" t="n">
-        <v>129100</v>
-      </c>
-      <c r="D169" t="n">
-        <v>129100</v>
-      </c>
-      <c r="E169" t="n">
-        <v>129100</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>126351.6666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>128900</v>
-      </c>
-      <c r="C170" t="n">
-        <v>128900</v>
-      </c>
-      <c r="D170" t="n">
-        <v>128900</v>
-      </c>
-      <c r="E170" t="n">
-        <v>128900</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="G170" t="n">
-        <v>126416.6666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>128900</v>
-      </c>
-      <c r="C171" t="n">
-        <v>128900</v>
-      </c>
-      <c r="D171" t="n">
-        <v>128900</v>
-      </c>
-      <c r="E171" t="n">
-        <v>128900</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>126491.6666666667</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>129100</v>
-      </c>
-      <c r="C172" t="n">
-        <v>129100</v>
-      </c>
-      <c r="D172" t="n">
-        <v>129100</v>
-      </c>
-      <c r="E172" t="n">
-        <v>128900</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1.4772</v>
-      </c>
-      <c r="G172" t="n">
-        <v>126565</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>129100</v>
-      </c>
-      <c r="C173" t="n">
-        <v>129100</v>
-      </c>
-      <c r="D173" t="n">
-        <v>129100</v>
-      </c>
-      <c r="E173" t="n">
-        <v>129100</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.0513</v>
-      </c>
-      <c r="G173" t="n">
-        <v>126641.6666666667</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>129100</v>
-      </c>
-      <c r="C174" t="n">
-        <v>129200</v>
-      </c>
-      <c r="D174" t="n">
-        <v>129200</v>
-      </c>
-      <c r="E174" t="n">
-        <v>129100</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2</v>
-      </c>
-      <c r="G174" t="n">
-        <v>126720</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>129200</v>
-      </c>
-      <c r="C175" t="n">
-        <v>129200</v>
-      </c>
-      <c r="D175" t="n">
-        <v>129200</v>
-      </c>
-      <c r="E175" t="n">
-        <v>129200</v>
-      </c>
-      <c r="F175" t="n">
-        <v>36.3367</v>
-      </c>
-      <c r="G175" t="n">
-        <v>126800</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>129200</v>
-      </c>
-      <c r="C176" t="n">
-        <v>129200</v>
-      </c>
-      <c r="D176" t="n">
-        <v>129200</v>
-      </c>
-      <c r="E176" t="n">
-        <v>129200</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.537</v>
-      </c>
-      <c r="G176" t="n">
-        <v>126881.6666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>129200</v>
-      </c>
-      <c r="C177" t="n">
-        <v>129200</v>
-      </c>
-      <c r="D177" t="n">
-        <v>129200</v>
-      </c>
-      <c r="E177" t="n">
-        <v>129200</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="G177" t="n">
-        <v>126961.6666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>129700</v>
-      </c>
-      <c r="C178" t="n">
-        <v>129700</v>
-      </c>
-      <c r="D178" t="n">
-        <v>129700</v>
-      </c>
-      <c r="E178" t="n">
-        <v>129700</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="G178" t="n">
-        <v>127038.3333333333</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>129800</v>
-      </c>
-      <c r="C179" t="n">
-        <v>129800</v>
-      </c>
-      <c r="D179" t="n">
-        <v>130000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>129800</v>
-      </c>
-      <c r="F179" t="n">
-        <v>3.3578</v>
-      </c>
-      <c r="G179" t="n">
-        <v>127110</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>130000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>130000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>130000</v>
-      </c>
-      <c r="E180" t="n">
-        <v>130000</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1.8572</v>
-      </c>
-      <c r="G180" t="n">
-        <v>127181.6666666667</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>130000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>130000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>130000</v>
-      </c>
-      <c r="E181" t="n">
-        <v>130000</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.0822</v>
-      </c>
-      <c r="G181" t="n">
-        <v>127265</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>130000</v>
-      </c>
-      <c r="C182" t="n">
-        <v>130000</v>
-      </c>
-      <c r="D182" t="n">
-        <v>130000</v>
-      </c>
-      <c r="E182" t="n">
-        <v>130000</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2.5669</v>
-      </c>
-      <c r="G182" t="n">
-        <v>127346.6666666667</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
+      <c r="N182" t="n">
+        <v>1.037502004811548</v>
       </c>
     </row>
     <row r="183">
@@ -6893,18 +7797,21 @@
         <v>34.4803</v>
       </c>
       <c r="G183" t="n">
+        <v>129433.3333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>127426.6666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,18 +7835,21 @@
         <v>28.77212307</v>
       </c>
       <c r="G184" t="n">
+        <v>129493.3333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>127516.6666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6963,18 +7873,21 @@
         <v>10.1645</v>
       </c>
       <c r="G185" t="n">
+        <v>129566.6666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>127613.3333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6998,18 +7911,21 @@
         <v>1.3637</v>
       </c>
       <c r="G186" t="n">
+        <v>129593.3333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>127696.6666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7033,18 +7949,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
+        <v>129586.6666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>127776.6666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,18 +7987,21 @@
         <v>7.2375</v>
       </c>
       <c r="G188" t="n">
+        <v>129526.6666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>127846.6666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7103,18 +8025,21 @@
         <v>1.5348</v>
       </c>
       <c r="G189" t="n">
+        <v>129486.6666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>127923.3333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,18 +8063,21 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
+        <v>129440</v>
+      </c>
+      <c r="H190" t="n">
         <v>127966.6666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,18 +8101,21 @@
         <v>5</v>
       </c>
       <c r="G191" t="n">
+        <v>129380</v>
+      </c>
+      <c r="H191" t="n">
         <v>128018.3333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,18 +8139,21 @@
         <v>30</v>
       </c>
       <c r="G192" t="n">
+        <v>129266.6666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>128040</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7243,18 +8177,21 @@
         <v>2.0349</v>
       </c>
       <c r="G193" t="n">
+        <v>129180</v>
+      </c>
+      <c r="H193" t="n">
         <v>128071.6666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,18 +8215,21 @@
         <v>0.5826</v>
       </c>
       <c r="G194" t="n">
+        <v>129006.6666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>128075</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7313,18 +8253,21 @@
         <v>0.5066000000000001</v>
       </c>
       <c r="G195" t="n">
+        <v>128813.3333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>128076.6666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7348,18 +8291,21 @@
         <v>0.6982</v>
       </c>
       <c r="G196" t="n">
+        <v>128626.6666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>128078.3333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7383,18 +8329,21 @@
         <v>0.2423</v>
       </c>
       <c r="G197" t="n">
+        <v>128440</v>
+      </c>
+      <c r="H197" t="n">
         <v>128091.6666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7418,18 +8367,21 @@
         <v>0.03471875</v>
       </c>
       <c r="G198" t="n">
+        <v>128300</v>
+      </c>
+      <c r="H198" t="n">
         <v>128103.3333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7453,18 +8405,21 @@
         <v>17.4314</v>
       </c>
       <c r="G199" t="n">
+        <v>128160</v>
+      </c>
+      <c r="H199" t="n">
         <v>128115</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,18 +8443,21 @@
         <v>0.0141</v>
       </c>
       <c r="G200" t="n">
+        <v>128026.6666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>128130</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,18 +8481,21 @@
         <v>4.31394582</v>
       </c>
       <c r="G201" t="n">
+        <v>127946.6666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>128141.6666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7558,18 +8519,21 @@
         <v>5.7229</v>
       </c>
       <c r="G202" t="n">
+        <v>127880</v>
+      </c>
+      <c r="H202" t="n">
         <v>128151.6666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7593,18 +8557,21 @@
         <v>61.0556</v>
       </c>
       <c r="G203" t="n">
+        <v>127820</v>
+      </c>
+      <c r="H203" t="n">
         <v>128150</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,18 +8595,21 @@
         <v>0.796</v>
       </c>
       <c r="G204" t="n">
+        <v>127753.3333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>128165</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,18 +8633,21 @@
         <v>1.11575418</v>
       </c>
       <c r="G205" t="n">
+        <v>127733.3333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>128210</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7698,18 +8671,21 @@
         <v>4</v>
       </c>
       <c r="G206" t="n">
+        <v>127733.3333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>128260</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,18 +8709,21 @@
         <v>1.9787</v>
       </c>
       <c r="G207" t="n">
+        <v>127793.3333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>128311.6666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7768,18 +8747,21 @@
         <v>0.0001</v>
       </c>
       <c r="G208" t="n">
+        <v>127793.3333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>128353.3333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7803,18 +8785,21 @@
         <v>0.7669</v>
       </c>
       <c r="G209" t="n">
+        <v>127900</v>
+      </c>
+      <c r="H209" t="n">
         <v>128383.3333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,18 +8823,21 @@
         <v>12.9503</v>
       </c>
       <c r="G210" t="n">
+        <v>128013.3333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>128401.6666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7873,18 +8861,21 @@
         <v>25.8147</v>
       </c>
       <c r="G211" t="n">
+        <v>128133.3333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>128423.3333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7908,18 +8899,21 @@
         <v>0.016</v>
       </c>
       <c r="G212" t="n">
+        <v>128233.3333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>128445</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,18 +8937,21 @@
         <v>2.4476</v>
       </c>
       <c r="G213" t="n">
+        <v>128306.6666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>128473.3333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,18 +8975,21 @@
         <v>0.0047</v>
       </c>
       <c r="G214" t="n">
+        <v>128293.3333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>128488.3333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,18 +9013,21 @@
         <v>3.7</v>
       </c>
       <c r="G215" t="n">
+        <v>128326.6666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>128511.6666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8048,18 +9051,21 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="G216" t="n">
+        <v>128353.3333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>128535</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8083,18 +9089,21 @@
         <v>0.04316239</v>
       </c>
       <c r="G217" t="n">
+        <v>128400</v>
+      </c>
+      <c r="H217" t="n">
         <v>128560</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8118,18 +9127,21 @@
         <v>3.6633</v>
       </c>
       <c r="G218" t="n">
+        <v>128493.3333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>128585</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,18 +9165,21 @@
         <v>4.9329</v>
       </c>
       <c r="G219" t="n">
+        <v>128566.6666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>128598.3333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,18 +9203,21 @@
         <v>0.6361</v>
       </c>
       <c r="G220" t="n">
+        <v>128600</v>
+      </c>
+      <c r="H220" t="n">
         <v>128610</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8223,18 +9241,21 @@
         <v>6.4418</v>
       </c>
       <c r="G221" t="n">
+        <v>128613.3333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>128618.3333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,18 +9279,21 @@
         <v>28.3594</v>
       </c>
       <c r="G222" t="n">
+        <v>128593.3333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>128626.6666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8293,18 +9317,21 @@
         <v>4.9262</v>
       </c>
       <c r="G223" t="n">
+        <v>128593.3333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>128643.3333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8328,18 +9355,21 @@
         <v>0.04302865</v>
       </c>
       <c r="G224" t="n">
+        <v>128613.3333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>128660</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8363,18 +9393,21 @@
         <v>3.7622</v>
       </c>
       <c r="G225" t="n">
+        <v>128693.3333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>128685</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8398,18 +9431,21 @@
         <v>28.6952</v>
       </c>
       <c r="G226" t="n">
+        <v>128720</v>
+      </c>
+      <c r="H226" t="n">
         <v>128696.6666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,18 +9469,21 @@
         <v>0.007</v>
       </c>
       <c r="G227" t="n">
+        <v>128780</v>
+      </c>
+      <c r="H227" t="n">
         <v>128705</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8468,18 +9507,21 @@
         <v>0.1511</v>
       </c>
       <c r="G228" t="n">
+        <v>128826.6666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>128716.6666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8503,18 +9545,21 @@
         <v>13.3521</v>
       </c>
       <c r="G229" t="n">
+        <v>128906.6666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>128713.3333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8538,18 +9583,21 @@
         <v>0.04618937</v>
       </c>
       <c r="G230" t="n">
+        <v>129000</v>
+      </c>
+      <c r="H230" t="n">
         <v>128730</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8573,18 +9621,21 @@
         <v>1.0854</v>
       </c>
       <c r="G231" t="n">
+        <v>129100</v>
+      </c>
+      <c r="H231" t="n">
         <v>128748.3333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,18 +9659,21 @@
         <v>1</v>
       </c>
       <c r="G232" t="n">
+        <v>129146.6666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>128753.3333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8643,18 +9697,21 @@
         <v>0.8102</v>
       </c>
       <c r="G233" t="n">
+        <v>129233.3333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>128768.3333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8678,18 +9735,21 @@
         <v>0.1898</v>
       </c>
       <c r="G234" t="n">
+        <v>129320</v>
+      </c>
+      <c r="H234" t="n">
         <v>128781.6666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8713,18 +9773,401 @@
         <v>0.55</v>
       </c>
       <c r="G235" t="n">
+        <v>129373.3333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>128786.6666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>129500</v>
+      </c>
+      <c r="C236" t="n">
+        <v>129500</v>
+      </c>
+      <c r="D236" t="n">
+        <v>129500</v>
+      </c>
+      <c r="E236" t="n">
+        <v>129500</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G236" t="n">
+        <v>129440</v>
+      </c>
+      <c r="H236" t="n">
+        <v>128791.6666666667</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>129400</v>
+      </c>
+      <c r="C237" t="n">
+        <v>128600</v>
+      </c>
+      <c r="D237" t="n">
+        <v>129400</v>
+      </c>
+      <c r="E237" t="n">
+        <v>128600</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10.9129</v>
+      </c>
+      <c r="G237" t="n">
+        <v>129473.3333333333</v>
+      </c>
+      <c r="H237" t="n">
+        <v>128781.6666666667</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>129400</v>
+      </c>
+      <c r="C238" t="n">
+        <v>129400</v>
+      </c>
+      <c r="D238" t="n">
+        <v>129400</v>
+      </c>
+      <c r="E238" t="n">
+        <v>129400</v>
+      </c>
+      <c r="F238" t="n">
+        <v>23.18392581</v>
+      </c>
+      <c r="G238" t="n">
+        <v>129540</v>
+      </c>
+      <c r="H238" t="n">
+        <v>128776.6666666667</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>129300</v>
+      </c>
+      <c r="C239" t="n">
+        <v>129300</v>
+      </c>
+      <c r="D239" t="n">
+        <v>129300</v>
+      </c>
+      <c r="E239" t="n">
+        <v>129300</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.6149</v>
+      </c>
+      <c r="G239" t="n">
+        <v>129553.3333333333</v>
+      </c>
+      <c r="H239" t="n">
+        <v>128768.3333333333</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C240" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D240" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E240" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="G240" t="n">
+        <v>129500</v>
+      </c>
+      <c r="H240" t="n">
+        <v>128755</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C241" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D241" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E241" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.0429</v>
+      </c>
+      <c r="G241" t="n">
+        <v>129486.6666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>128741.6666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>129500</v>
+      </c>
+      <c r="C242" t="n">
+        <v>129500</v>
+      </c>
+      <c r="D242" t="n">
+        <v>129500</v>
+      </c>
+      <c r="E242" t="n">
+        <v>129500</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.04289575</v>
+      </c>
+      <c r="G242" t="n">
+        <v>129480</v>
+      </c>
+      <c r="H242" t="n">
+        <v>128733.3333333333</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C243" t="n">
+        <v>129200</v>
+      </c>
+      <c r="D243" t="n">
+        <v>129200</v>
+      </c>
+      <c r="E243" t="n">
+        <v>129200</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.2321</v>
+      </c>
+      <c r="G243" t="n">
+        <v>129440</v>
+      </c>
+      <c r="H243" t="n">
+        <v>128718.3333333333</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C244" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D244" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E244" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2</v>
+      </c>
+      <c r="G244" t="n">
+        <v>129453.3333333333</v>
+      </c>
+      <c r="H244" t="n">
+        <v>128703.3333333333</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C245" t="n">
+        <v>129100</v>
+      </c>
+      <c r="D245" t="n">
+        <v>129100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>129100</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="G245" t="n">
+        <v>129400</v>
+      </c>
+      <c r="H245" t="n">
+        <v>128688.3333333333</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest DASH.xlsx
+++ b/BackTest/2020-01-22 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>318.84071819</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>320.24601819</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>125700</v>
+      </c>
+      <c r="J3" t="n">
+        <v>125700</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>320.24597045</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J4" t="n">
+        <v>125700</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>320.73197045</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125600</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125700</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>320.73197045</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126000</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>420.73197045</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -651,9 +683,17 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -684,9 +724,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -717,9 +765,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,17 @@
         <v>420.54041819</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +843,17 @@
         <v>425.89649781</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,17 @@
         <v>432.89649781</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1350,17 @@
         <v>392.5044853300001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2520,17 @@
         <v>319.3145853300002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2559,17 @@
         <v>319.4729853300001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2598,17 @@
         <v>319.0134853300002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2637,17 @@
         <v>319.1419853300001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2676,17 @@
         <v>319.2638853300001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2988,17 @@
         <v>375.4897853300001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3225,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3459,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3537,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4317,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4395,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4473,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4707,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5019,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5058,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5097,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5136,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5253,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5331,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5370,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5487,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5565,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5643,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5799,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,15 +6381,17 @@
         <v>210.9462299100002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>125100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>125100</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>126000</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,17 +6420,15 @@
         <v>231.9462299100002</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>125500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>125100</v>
+        <v>126000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5545,17 +6459,15 @@
         <v>217.4733299100002</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>125100</v>
+        <v>126000</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5589,8 +6501,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5622,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5655,8 +6579,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5688,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5721,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5751,15 +6693,17 @@
         <v>1305.13752991</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>126100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>126100</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+        <v>126000</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +6736,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5831,7 +6775,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5866,13 +6810,11 @@
         <v>1298.95302991</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>126300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5907,13 +6849,11 @@
         <v>1292.05102991</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>125700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5948,13 +6888,11 @@
         <v>1291.54112991</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>125400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -5989,13 +6927,11 @@
         <v>1291.54112991</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6030,13 +6966,11 @@
         <v>1289.90362991</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6071,13 +7005,11 @@
         <v>1292.54122991</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>124400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6112,13 +7044,11 @@
         <v>1291.76922991</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>124700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6157,7 +7087,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6196,7 +7126,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6231,13 +7161,11 @@
         <v>1288.53922991</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>124400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6272,13 +7200,11 @@
         <v>1289.61462991</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>124300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6313,13 +7239,11 @@
         <v>1289.62602991</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>124400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6358,7 +7282,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6397,7 +7321,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6436,7 +7360,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6475,7 +7399,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6514,7 +7438,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6553,7 +7477,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6592,7 +7516,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6631,7 +7555,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6670,7 +7594,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6709,7 +7633,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6748,7 +7672,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6787,7 +7711,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6826,7 +7750,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6865,7 +7789,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6904,7 +7828,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6943,7 +7867,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6982,7 +7906,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7021,7 +7945,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7060,7 +7984,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7099,7 +8023,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7138,7 +8062,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7177,7 +8101,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7216,7 +8140,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7255,7 +8179,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7294,7 +8218,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7329,19 +8253,19 @@
         <v>1233.73112444</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>126100</v>
+        <v>126000</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>0.9997581284694687</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7371,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +8334,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7437,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7470,8 +8412,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7503,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7536,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +8529,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7635,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7701,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7731,11 +8721,17 @@
         <v>1135.78192444</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7767,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7800,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7833,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7866,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7899,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7932,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7965,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7998,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8031,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8064,8 +9114,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8097,8 +9153,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8130,8 +9192,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8163,8 +9231,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8196,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8229,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8295,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8328,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8361,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8394,8 +9504,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8424,11 +9540,17 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8457,11 +9579,17 @@
         <v>1186.823524440001</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8493,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8526,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +9696,17 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8589,11 +9735,17 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +9774,17 @@
         <v>1226.518824440001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8655,11 +9813,17 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8688,11 +9852,17 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8721,11 +9891,17 @@
         <v>1196.383001370001</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8754,13 +9930,19 @@
         <v>1195.383001370001</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
-        <v>1</v>
+        <v>1.018809523809524</v>
       </c>
       <c r="M245" t="inlineStr"/>
     </row>
@@ -8787,7 +9969,7 @@
         <v>1188.145501370001</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8820,7 +10002,7 @@
         <v>1189.680301370001</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8853,7 +10035,7 @@
         <v>1188.680301370001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8886,7 +10068,7 @@
         <v>1183.680301370001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8919,7 +10101,7 @@
         <v>1153.680301370001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8952,7 +10134,7 @@
         <v>1155.715201370001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8985,7 +10167,7 @@
         <v>1155.132601370001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9018,7 +10200,7 @@
         <v>1154.626001370001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9051,7 +10233,7 @@
         <v>1155.324201370001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9084,7 +10266,7 @@
         <v>1155.324201370001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9117,7 +10299,7 @@
         <v>1155.358920120001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9150,7 +10332,7 @@
         <v>1137.927520120001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9183,7 +10365,7 @@
         <v>1137.941620120001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9216,7 +10398,7 @@
         <v>1142.255565940001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9249,7 +10431,7 @@
         <v>1136.532665940001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9282,7 +10464,7 @@
         <v>1075.477065940001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9315,7 +10497,7 @@
         <v>1076.273065940001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9348,7 +10530,7 @@
         <v>1077.388820120001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9381,7 +10563,7 @@
         <v>1081.388820120001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9414,7 +10596,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9447,7 +10629,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9480,7 +10662,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9843,7 +11025,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9876,7 +11058,7 @@
         <v>1109.677382510001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9909,7 +11091,7 @@
         <v>1081.317982510001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9942,7 +11124,7 @@
         <v>1086.244182510001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9975,7 +11157,7 @@
         <v>1086.287211160001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10008,7 +11190,7 @@
         <v>1090.049411160001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10041,7 +11223,7 @@
         <v>1061.354211160001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10074,7 +11256,7 @@
         <v>1061.361211160001</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10107,7 +11289,7 @@
         <v>1061.512311160001</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10140,7 +11322,7 @@
         <v>1048.160211160001</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10173,7 +11355,7 @@
         <v>1048.206400530001</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10206,7 +11388,7 @@
         <v>1049.291800530001</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10239,7 +11421,7 @@
         <v>1048.291800530001</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10272,7 +11454,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10305,7 +11487,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10338,7 +11520,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10371,7 +11553,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10404,7 +11586,7 @@
         <v>1037.639100530001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10437,7 +11619,7 @@
         <v>1060.823026340001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10470,7 +11652,7 @@
         <v>1059.208126340001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10503,7 +11685,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10536,7 +11718,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10569,7 +11751,7 @@
         <v>1058.889022090001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10602,7 +11784,7 @@
         <v>1058.656922090001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10635,7 +11817,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10668,7 +11850,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10679,6 +11861,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest DASH.xlsx
+++ b/BackTest/2020-01-22 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>318.84071819</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>320.24601819</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>125700</v>
+      </c>
+      <c r="J3" t="n">
+        <v>125700</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>320.24597045</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126700</v>
+      </c>
+      <c r="J4" t="n">
+        <v>125700</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>320.73197045</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125600</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125700</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>320.73197045</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>126000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126000</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +721,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +877,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +955,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1033,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1072,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1267,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1345,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1384,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1423,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1462,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3061,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3139,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,13 +3292,19 @@
         <v>532.0467853300001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>126000</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>1.023571428571429</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -2893,7 +3331,7 @@
         <v>537.2656853300001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3883,10 +4321,14 @@
         <v>335.4954394000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>124000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>124000</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3916,11 +4358,19 @@
         <v>363.8379394000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>124200</v>
+      </c>
+      <c r="J107" t="n">
+        <v>124000</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4402,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>124000</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4081,10 +4537,14 @@
         <v>283.4055008500001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>122500</v>
+      </c>
+      <c r="J112" t="n">
+        <v>122500</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4114,11 +4574,19 @@
         <v>272.4055008500001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>123600</v>
+      </c>
+      <c r="J113" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4615,19 @@
         <v>217.6312008500001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>123000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4656,19 @@
         <v>225.9683008500001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>121100</v>
+      </c>
+      <c r="J115" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4697,19 @@
         <v>230.0636008500001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>122300</v>
+      </c>
+      <c r="J116" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4738,19 @@
         <v>234.3791008500002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>123000</v>
+      </c>
+      <c r="J117" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4285,9 +4785,13 @@
         <v>123500</v>
       </c>
       <c r="J118" t="n">
-        <v>123500</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>122500</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4322,11 +4826,11 @@
         <v>123900</v>
       </c>
       <c r="J119" t="n">
-        <v>123500</v>
+        <v>122500</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4363,11 +4867,11 @@
         <v>123900</v>
       </c>
       <c r="J120" t="n">
-        <v>123500</v>
+        <v>122500</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4404,9 +4908,13 @@
         <v>123700</v>
       </c>
       <c r="J121" t="n">
-        <v>123700</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>122500</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4435,15 +4943,17 @@
         <v>211.4771008500002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>124900</v>
+      </c>
       <c r="J122" t="n">
-        <v>123700</v>
+        <v>122500</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4474,15 +4984,17 @@
         <v>211.4592820900002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>124900</v>
+      </c>
       <c r="J123" t="n">
-        <v>123700</v>
+        <v>122500</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4513,11 +5025,19 @@
         <v>207.9655820900002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J124" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4549,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +5144,19 @@
         <v>187.7131102300002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>124100</v>
+      </c>
+      <c r="J127" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +5185,19 @@
         <v>187.7131102300002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>124100</v>
+      </c>
+      <c r="J128" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +5226,19 @@
         <v>183.6539960800002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>124100</v>
+      </c>
+      <c r="J129" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +5267,19 @@
         <v>178.5839960800002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>124000</v>
+      </c>
+      <c r="J130" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +5308,19 @@
         <v>181.0238960800002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>123800</v>
+      </c>
+      <c r="J131" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +5349,19 @@
         <v>181.1971679400002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>124000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +5390,19 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>124700</v>
+      </c>
+      <c r="J133" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +5431,19 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>125200</v>
+      </c>
+      <c r="J134" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +5472,19 @@
         <v>182.2326631400002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>125200</v>
+      </c>
+      <c r="J135" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +5513,19 @@
         <v>214.9963631400002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>125200</v>
+      </c>
+      <c r="J136" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5554,19 @@
         <v>248.6762631400002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>125400</v>
+      </c>
+      <c r="J137" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5595,19 @@
         <v>254.9290631400002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>125600</v>
+      </c>
+      <c r="J138" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5636,19 @@
         <v>258.9620299100002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J139" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5755,19 @@
         <v>259.0981299100002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>126100</v>
+      </c>
+      <c r="J142" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5799,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5209,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +6147,19 @@
         <v>202.7594299100002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>124500</v>
+      </c>
+      <c r="J152" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +6188,19 @@
         <v>190.3195299100002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>125300</v>
+      </c>
+      <c r="J153" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +6229,19 @@
         <v>210.9462299100002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>125100</v>
+      </c>
+      <c r="J154" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +6270,19 @@
         <v>231.9462299100002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>125500</v>
+      </c>
+      <c r="J155" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +6350,19 @@
         <v>1285.47892991</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>125400</v>
+      </c>
+      <c r="J157" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +6391,17 @@
         <v>1289.26112991</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +6703,17 @@
         <v>1292.05102991</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +6742,17 @@
         <v>1291.54112991</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +6781,17 @@
         <v>1291.54112991</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6820,17 @@
         <v>1289.90362991</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6859,17 @@
         <v>1292.54122991</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +6898,17 @@
         <v>1291.76922991</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6937,17 @@
         <v>1291.76922991</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +7444,17 @@
         <v>1286.70702216</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +8536,17 @@
         <v>1135.78192444</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +8575,17 @@
         <v>1135.78192444</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7516,11 +8614,17 @@
         <v>1160.27942444</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +8653,17 @@
         <v>1160.27942444</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8695,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8773,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8812,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7714,11 +8848,17 @@
         <v>1162.277124440001</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +8887,17 @@
         <v>1163.560424440001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +8926,17 @@
         <v>1174.881624440001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +8965,17 @@
         <v>1176.333324440001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +9004,17 @@
         <v>1180.363824440001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7978,13 +9160,19 @@
         <v>1180.336324440001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>122500</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L229" t="n">
-        <v>1</v>
+        <v>1.047244897959184</v>
       </c>
       <c r="M229" t="inlineStr"/>
     </row>
@@ -8011,7 +9199,7 @@
         <v>1181.813524440001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8044,7 +9232,7 @@
         <v>1181.813524440001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8077,7 +9265,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8110,7 +9298,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8143,7 +9331,7 @@
         <v>1183.813524440001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8242,7 +9430,7 @@
         <v>1190.181324440001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8275,7 +9463,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8308,7 +9496,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8341,7 +9529,7 @@
         <v>1192.038524440001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8374,7 +9562,7 @@
         <v>1226.518824440001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8407,7 +9595,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8440,7 +9628,7 @@
         <v>1197.746701370001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8473,7 +9661,7 @@
         <v>1196.383001370001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8506,7 +9694,7 @@
         <v>1195.383001370001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8539,7 +9727,7 @@
         <v>1188.145501370001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8572,7 +9760,7 @@
         <v>1189.680301370001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8605,7 +9793,7 @@
         <v>1188.680301370001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8638,7 +9826,7 @@
         <v>1183.680301370001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8671,7 +9859,7 @@
         <v>1153.680301370001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8704,7 +9892,7 @@
         <v>1155.715201370001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8902,7 +10090,7 @@
         <v>1137.927520120001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8935,7 +10123,7 @@
         <v>1137.941620120001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8968,7 +10156,7 @@
         <v>1142.255565940001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9001,7 +10189,7 @@
         <v>1136.532665940001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9034,7 +10222,7 @@
         <v>1075.477065940001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9067,7 +10255,7 @@
         <v>1076.273065940001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9133,7 +10321,7 @@
         <v>1081.388820120001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9166,7 +10354,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9199,7 +10387,7 @@
         <v>1083.367520120001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9232,7 +10420,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9265,7 +10453,7 @@
         <v>1084.134420120001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9298,7 +10486,7 @@
         <v>1109.949120120001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9331,7 +10519,7 @@
         <v>1109.933120120001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9364,7 +10552,7 @@
         <v>1112.380720120001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9397,7 +10585,7 @@
         <v>1112.376020120001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9496,7 +10684,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9529,7 +10717,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9562,7 +10750,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9595,7 +10783,7 @@
         <v>1116.119182510001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9628,7 +10816,7 @@
         <v>1109.677382510001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9793,7 +10981,7 @@
         <v>1061.354211160001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9826,7 +11014,7 @@
         <v>1061.361211160001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9859,7 +11047,7 @@
         <v>1061.512311160001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9892,7 +11080,7 @@
         <v>1048.160211160001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9925,7 +11113,7 @@
         <v>1048.206400530001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9958,7 +11146,7 @@
         <v>1049.291800530001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9991,7 +11179,7 @@
         <v>1048.291800530001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10024,7 +11212,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10057,7 +11245,7 @@
         <v>1049.102000530001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10090,7 +11278,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10123,7 +11311,7 @@
         <v>1048.552000530001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10156,7 +11344,7 @@
         <v>1037.639100530001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10189,7 +11377,7 @@
         <v>1060.823026340001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10222,7 +11410,7 @@
         <v>1059.208126340001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10255,7 +11443,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10288,7 +11476,7 @@
         <v>1058.846126340001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10321,7 +11509,7 @@
         <v>1058.889022090001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10354,7 +11542,7 @@
         <v>1058.656922090001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10387,7 +11575,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10420,7 +11608,7 @@
         <v>1056.656922090001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
